--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 2 (25–29 de agosto 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 2 (25–29 de agosto 2025).xlsx
@@ -677,7 +677,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -704,7 +704,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>45894.0</v>
@@ -731,7 +731,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>45894.0</v>
@@ -758,7 +758,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>45894.0</v>
@@ -785,7 +785,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>45894.0</v>
@@ -812,7 +812,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>45895.0</v>
@@ -839,7 +839,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>45895.0</v>
@@ -866,7 +866,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>45895.0</v>
@@ -893,7 +893,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>45895.0</v>
@@ -920,7 +920,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>45896.0</v>
@@ -947,7 +947,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>45896.0</v>
@@ -974,7 +974,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>45896.0</v>
@@ -1001,7 +1001,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>45896.0</v>
@@ -1028,7 +1028,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>45897.0</v>
@@ -1055,7 +1055,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>45897.0</v>
@@ -1082,7 +1082,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>45897.0</v>
@@ -1109,7 +1109,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>45897.0</v>
@@ -1136,7 +1136,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>45898.0</v>
@@ -1163,7 +1163,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>45898.0</v>
@@ -1190,7 +1190,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>45898.0</v>
@@ -1217,7 +1217,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>45898.0</v>
